--- a/I1/output/pickle_summary.xlsx
+++ b/I1/output/pickle_summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanderdy\Box\OSU\courses\2019_04Fall\CS534_MachineLearning\hw\implementation\I1\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Box/OSU/courses/2019_04Fall/CS534_MachineLearning/hw/implementation/I1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E274AF-582D-7B49-8CD7-B644BC6FCDAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="11610"/>
+    <workbookView xWindow="2440" yWindow="460" windowWidth="21100" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,9 +168,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0E+00"/>
+    <numFmt numFmtId="164" formatCode="0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -226,34 +227,34 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,85 +536,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
@@ -621,323 +622,323 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3">
+      <c r="D6" s="14"/>
+      <c r="E6" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3">
+      <c r="D7" s="14"/>
+      <c r="E7" s="2">
         <v>0.01</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
+      <c r="D8" s="14"/>
+      <c r="E8" s="2">
         <v>0.1</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3">
+      <c r="D9" s="14"/>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3">
+      <c r="D10" s="14"/>
+      <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
+      <c r="D11" s="14"/>
+      <c r="E11" s="2">
         <v>100</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3">
+      <c r="D13" s="14"/>
+      <c r="E13" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
+      <c r="D14" s="14"/>
+      <c r="E14" s="2">
         <v>0.01</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3">
+      <c r="D15" s="14"/>
+      <c r="E15" s="2">
         <v>0.1</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3">
+      <c r="D16" s="14"/>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3">
+      <c r="D17" s="14"/>
+      <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3">
+      <c r="D18" s="14"/>
+      <c r="E18" s="2">
         <v>100</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="14">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3">
+      <c r="D20" s="14"/>
+      <c r="E20" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3">
+      <c r="D21" s="14"/>
+      <c r="E21" s="2">
         <v>0.01</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3">
+      <c r="D22" s="14"/>
+      <c r="E22" s="2">
         <v>0.1</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3">
+      <c r="D23" s="14"/>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3">
+      <c r="D24" s="14"/>
+      <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="1">
         <v>100</v>
       </c>
@@ -946,538 +947,538 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="9">
+      <c r="D27" s="8"/>
+      <c r="E27" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="9">
+      <c r="D28" s="8"/>
+      <c r="E28" s="4">
         <v>0.01</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="9">
+      <c r="D29" s="8"/>
+      <c r="E29" s="4">
         <v>0.1</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="9">
+      <c r="D30" s="8"/>
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="9">
+      <c r="D31" s="8"/>
+      <c r="E31" s="4">
         <v>10</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="9">
+      <c r="D32" s="8"/>
+      <c r="E32" s="4">
         <v>100</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="8">
         <v>0.1</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="9">
+      <c r="D34" s="8"/>
+      <c r="E34" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="9">
+      <c r="D35" s="8"/>
+      <c r="E35" s="4">
         <v>0.01</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="9">
+      <c r="D36" s="8"/>
+      <c r="E36" s="4">
         <v>0.1</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="9">
+      <c r="D37" s="8"/>
+      <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="9">
+      <c r="D38" s="8"/>
+      <c r="E38" s="4">
         <v>10</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="9">
+      <c r="D39" s="8"/>
+      <c r="E39" s="4">
         <v>100</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="8">
         <v>0.01</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="4">
         <v>0</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="9">
+      <c r="D41" s="8"/>
+      <c r="E41" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="9">
+      <c r="D42" s="8"/>
+      <c r="E42" s="4">
         <v>0.01</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="9">
+      <c r="D43" s="8"/>
+      <c r="E43" s="4">
         <v>0.1</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="9">
+      <c r="D44" s="8"/>
+      <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="9">
+      <c r="D45" s="8"/>
+      <c r="E45" s="4">
         <v>10</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="9">
+      <c r="D46" s="8"/>
+      <c r="E46" s="4">
         <v>100</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="8">
         <v>1E-3</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="4">
         <v>0</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="9">
+      <c r="D48" s="8"/>
+      <c r="E48" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="9">
+      <c r="D49" s="8"/>
+      <c r="E49" s="4">
         <v>0.01</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="9">
+      <c r="D50" s="8"/>
+      <c r="E50" s="4">
         <v>0.1</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="9">
+      <c r="D51" s="8"/>
+      <c r="E51" s="4">
         <v>1</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="9">
+      <c r="D52" s="8"/>
+      <c r="E52" s="4">
         <v>10</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9" t="s">
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="9">
+      <c r="D53" s="8"/>
+      <c r="E53" s="4">
         <v>100</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="8">
         <v>1E-4</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="4">
         <v>0</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="9">
+      <c r="D55" s="8"/>
+      <c r="E55" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9" t="s">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="9">
+      <c r="D56" s="8"/>
+      <c r="E56" s="4">
         <v>0.01</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9" t="s">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="9">
+      <c r="D57" s="8"/>
+      <c r="E57" s="4">
         <v>0.1</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9" t="s">
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="9">
+      <c r="D58" s="8"/>
+      <c r="E58" s="4">
         <v>1</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9" t="s">
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="9">
+      <c r="D59" s="8"/>
+      <c r="E59" s="4">
         <v>10</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="12">
+      <c r="D60" s="9"/>
+      <c r="E60" s="6">
         <v>100</v>
       </c>
       <c r="F60" s="1"/>
@@ -1487,20 +1488,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A26:A60"/>
     <mergeCell ref="B26:B60"/>
     <mergeCell ref="B5:B25"/>
     <mergeCell ref="D5:D11"/>
     <mergeCell ref="D12:D18"/>
     <mergeCell ref="D19:D25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A25"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="D54:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/I1/output/pickle_summary.xlsx
+++ b/I1/output/pickle_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Box/OSU/courses/2019_04Fall/CS534_MachineLearning/hw/implementation/I1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E274AF-582D-7B49-8CD7-B644BC6FCDAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FA9938-451F-AF42-AEE5-F57788FFE6E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="460" windowWidth="21100" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="460" windowWidth="21100" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>pickle file</t>
   </si>
@@ -42,9 +42,6 @@
     <t>results_p1</t>
   </si>
   <si>
-    <t>results_p2_drs</t>
-  </si>
-  <si>
     <t>trial_0</t>
   </si>
   <si>
@@ -108,18 +105,6 @@
     <t>trial_20</t>
   </si>
   <si>
-    <t>code ran by?</t>
-  </si>
-  <si>
-    <t>Derek</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Meredith</t>
-  </si>
-  <si>
     <t>results_p2</t>
   </si>
   <si>
@@ -163,6 +148,69 @@
   </si>
   <si>
     <t>trial_34</t>
+  </si>
+  <si>
+    <t>trial_35</t>
+  </si>
+  <si>
+    <t>trial_36</t>
+  </si>
+  <si>
+    <t>trial_37</t>
+  </si>
+  <si>
+    <t>trial_38</t>
+  </si>
+  <si>
+    <t>trial_39</t>
+  </si>
+  <si>
+    <t>trial_40</t>
+  </si>
+  <si>
+    <t>trial_41</t>
+  </si>
+  <si>
+    <t>trial_42</t>
+  </si>
+  <si>
+    <t>trial_43</t>
+  </si>
+  <si>
+    <t>trial_44</t>
+  </si>
+  <si>
+    <t>trial_45</t>
+  </si>
+  <si>
+    <t>trial_46</t>
+  </si>
+  <si>
+    <t>trial_47</t>
+  </si>
+  <si>
+    <t>trial_48</t>
+  </si>
+  <si>
+    <t>trial_49</t>
+  </si>
+  <si>
+    <t>trial_50</t>
+  </si>
+  <si>
+    <t>trial_51</t>
+  </si>
+  <si>
+    <t>trial_52</t>
+  </si>
+  <si>
+    <t>trial_53</t>
+  </si>
+  <si>
+    <t>trial_54</t>
+  </si>
+  <si>
+    <t>trial_55</t>
   </si>
 </sst>
 </file>
@@ -189,18 +237,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -224,38 +266,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,971 +583,890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="15" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="15"/>
+    <col min="4" max="4" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D3" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E3" s="4">
         <v>0</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>0</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="5">
         <v>1E-3</v>
       </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5">
         <v>0.01</v>
       </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="5">
         <v>0.1</v>
       </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="5">
         <v>100</v>
       </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E12" s="2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="5">
         <v>0</v>
       </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="5">
         <v>1E-3</v>
       </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5">
         <v>0.01</v>
       </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5">
         <v>0.1</v>
       </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5">
         <v>1</v>
       </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="5">
         <v>10</v>
       </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="5">
         <v>100</v>
       </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E19" s="2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="5">
         <v>0</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="5">
         <v>1E-3</v>
       </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="5">
         <v>0.01</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="5">
         <v>0.1</v>
       </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="5">
         <v>1</v>
       </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="5">
         <v>10</v>
       </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="1">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="5">
         <v>100</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="D26" s="5">
         <v>0</v>
       </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="4">
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="5">
         <v>1E-3</v>
       </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4">
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="5">
         <v>0.01</v>
       </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="4">
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="5">
         <v>0.1</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4">
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="5">
         <v>1</v>
       </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4">
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="5">
         <v>10</v>
       </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4">
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="5">
         <v>100</v>
       </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="D33" s="5">
         <v>0</v>
       </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4">
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="5">
         <v>1E-3</v>
       </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="4">
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="5">
         <v>0.01</v>
       </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4">
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="5">
         <v>0.1</v>
       </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="4">
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="5">
         <v>1</v>
       </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="4">
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="5">
         <v>10</v>
       </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="4">
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="5">
         <v>100</v>
       </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D40" s="5">
         <v>0</v>
       </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4">
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="5">
         <v>1E-3</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="4">
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="5">
         <v>0.01</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="4">
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="5">
         <v>0.1</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="4">
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="4">
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="5">
         <v>10</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4">
+      <c r="B46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="5">
         <v>100</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="E47" s="4">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D47" s="5">
         <v>0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="4">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="5">
         <v>1E-3</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="4">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="5">
         <v>0.01</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="4">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="5">
         <v>0.1</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="4">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="4">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="5">
         <v>10</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="4">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="5">
         <v>100</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="E54" s="4">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D54" s="5">
         <v>0</v>
       </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="4">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="5">
         <v>1E-3</v>
       </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="4">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
+      <c r="B56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="5">
         <v>0.01</v>
       </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="4">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="5">
         <v>0.1</v>
       </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="4">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="5">
         <v>1</v>
       </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="4">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="16"/>
+      <c r="B59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="5">
         <v>10</v>
       </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="6">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="8">
         <v>100</v>
       </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="16"/>
+      <c r="D61" s="5"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A25"/>
+  <mergeCells count="9">
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C54:C60"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A26:A60"/>
-    <mergeCell ref="B26:B60"/>
-    <mergeCell ref="B5:B25"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="D54:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/I1/output/pickle_summary.xlsx
+++ b/I1/output/pickle_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Box/OSU/courses/2019_04Fall/CS534_MachineLearning/hw/implementation/I1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5AD0C-A93C-7947-825B-B945E79C30A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A5087-CE9A-6440-81B4-0C1D5C3A887D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="940" windowWidth="21100" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,11 +142,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -155,19 +161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -464,16 +464,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -485,29 +485,29 @@
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="2"/>
@@ -516,14 +516,14 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>100</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="2"/>
@@ -532,14 +532,14 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>1000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
@@ -548,14 +548,14 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>10000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
@@ -564,14 +564,14 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>100000</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
@@ -580,14 +580,14 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>1000000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
@@ -596,14 +596,14 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>10000000</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="1"/>
@@ -615,26 +615,26 @@
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3">
         <v>1E-3</v>
       </c>
@@ -644,11 +644,11 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="3">
         <v>0.01</v>
       </c>
@@ -658,11 +658,11 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3">
         <v>0.1</v>
       </c>
@@ -672,11 +672,11 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
@@ -687,11 +687,11 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3">
         <v>10</v>
       </c>
@@ -702,11 +702,11 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="4">
         <v>100</v>
       </c>

--- a/I1/output/pickle_summary.xlsx
+++ b/I1/output/pickle_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Box/OSU/courses/2019_04Fall/CS534_MachineLearning/hw/implementation/I1/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A5087-CE9A-6440-81B4-0C1D5C3A887D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B58C981-3490-C14E-9029-FA5AEC6CE26D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="940" windowWidth="21100" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
